--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/114.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/114.xlsx
@@ -479,13 +479,13 @@
         <v>5.992624983377031</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.23504981640573</v>
+        <v>-20.0923956567261</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7604998198731564</v>
+        <v>0.5123482289212834</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.55709902236985</v>
+        <v>-10.27324093011111</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>5.941994884425375</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.85651592429362</v>
+        <v>-20.49978193192552</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9142493078238977</v>
+        <v>0.324634810266084</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.18892258224308</v>
+        <v>-9.782697537112336</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>5.837073634765617</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.39951347196753</v>
+        <v>-20.80181499814979</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.431975579002723</v>
+        <v>0.1612637568012541</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.35060946378004</v>
+        <v>-9.42457289510395</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>5.690679923994624</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.60054454532821</v>
+        <v>-20.84928725482754</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7026873136718872</v>
+        <v>0.3915066461917466</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.639522971014731</v>
+        <v>-8.771308686553642</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5.527033540736791</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.18753826579748</v>
+        <v>-20.94179215375643</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7925228148514494</v>
+        <v>0.3032111821752627</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.910361819862436</v>
+        <v>-7.861528065710039</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>5.374542795402396</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.94726059887486</v>
+        <v>-21.34022176837567</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.704488821764562</v>
+        <v>-0.03495653380237737</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.702674454590238</v>
+        <v>-7.007061668558713</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>5.253653394381542</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.90138451200138</v>
+        <v>-21.89857568661856</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.392071504954963</v>
+        <v>-0.2400063708076572</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.626322834349628</v>
+        <v>-6.512611959073269</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5.19333544582814</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.80016740283564</v>
+        <v>-21.79919195502791</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.622431730510262</v>
+        <v>-0.4663478327183517</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.363142705696729</v>
+        <v>-6.202326249257645</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>5.222362257012751</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.53888167340589</v>
+        <v>-22.03213846521581</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.381359690909553</v>
+        <v>-0.3733442550890286</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.116174523814521</v>
+        <v>-5.865077666570985</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.357642393872838</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.41718197903343</v>
+        <v>-22.65572151307708</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.91540546701014</v>
+        <v>-0.7823976816300685</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.636812289520376</v>
+        <v>-5.244447578857335</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.60102807094724</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.2535101607085</v>
+        <v>-23.36910095006297</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.693385887169798</v>
+        <v>-0.6872038289243675</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.397642073590897</v>
+        <v>-4.979683411979555</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.950518456645795</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.74556914583602</v>
+        <v>-23.78542921882198</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.50811208294119</v>
+        <v>-0.6290197582012127</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.026375781124243</v>
+        <v>-4.849635829319618</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>6.397195296635702</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.08952544594409</v>
+        <v>-24.27159695067487</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.289847260374639</v>
+        <v>-0.5762967081484019</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.272178025806475</v>
+        <v>-4.457825929998187</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.91304007031929</v>
       </c>
       <c r="E15" t="n">
-        <v>-24.39266342772028</v>
+        <v>-24.82714457897615</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.189969739090433</v>
+        <v>-0.4631846452754577</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.833756335015877</v>
+        <v>-4.206706981285968</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.465074893437111</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.04521384126802</v>
+        <v>-25.47450286723122</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.15931077702801</v>
+        <v>-0.3283311688653426</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.814464313919031</v>
+        <v>-3.975540069597628</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.024422885906107</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.94703026992542</v>
+        <v>-26.32935060691817</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8281147848425902</v>
+        <v>-0.2534071386298711</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.592830965621176</v>
+        <v>-4.009215548896938</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.564599839617676</v>
       </c>
       <c r="E18" t="n">
-        <v>-26.08365356682136</v>
+        <v>-27.00019323965847</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7450212241325037</v>
+        <v>-0.2324577442051405</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.788704136737256</v>
+        <v>-4.346649913844541</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>9.052656785814643</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.75896719634145</v>
+        <v>-27.57642381151023</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7646848097512357</v>
+        <v>-0.009044797407728145</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.072689525050095</v>
+        <v>-4.123540085472877</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>9.467827786110885</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.36202619337541</v>
+        <v>-28.12365035012402</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5915406315594427</v>
+        <v>0.1998624660155476</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.957421410148841</v>
+        <v>-4.345070764626527</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>9.798996479895914</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.94209219111427</v>
+        <v>-28.64053571212174</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1618898190880902</v>
+        <v>0.6871106683860252</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.499006034838211</v>
+        <v>-4.753151278801051</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>10.03955734848837</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.58958737156162</v>
+        <v>-29.08644980593589</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1851712697883391</v>
+        <v>0.752075791633591</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.476311264961992</v>
+        <v>-4.887154068016323</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>10.18000225963026</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.74666871769216</v>
+        <v>-29.38450566507392</v>
       </c>
       <c r="F23" t="n">
-        <v>0.258872778899211</v>
+        <v>1.199669259306521</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.796145205188701</v>
+        <v>-5.348778985397299</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>10.22316771997894</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.93328944331261</v>
+        <v>-29.46225309677504</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6985558334614731</v>
+        <v>1.564242501372369</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.923225160680421</v>
+        <v>-5.550069176121921</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10.17839420268203</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.6152007875996</v>
+        <v>-29.99750645757175</v>
       </c>
       <c r="F25" t="n">
-        <v>1.059159201951386</v>
+        <v>1.89153706607799</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.196466865465431</v>
+        <v>-5.764256566961465</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.05280860277905</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.57755054571749</v>
+        <v>-29.64089496318867</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7503597502233038</v>
+        <v>1.894587806362945</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.77564071038886</v>
+        <v>-5.718984363373833</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>9.852033304288213</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.65132810384267</v>
+        <v>-29.77417417938764</v>
       </c>
       <c r="F27" t="n">
-        <v>1.17883231203973</v>
+        <v>2.050151115861312</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.214673527037822</v>
+        <v>-5.991712722437816</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.586030993177758</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.42002429996206</v>
+        <v>-29.62042224693347</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8971619594161589</v>
+        <v>2.133063783317322</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.755373241484281</v>
+        <v>-6.124463925895158</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>9.272893883913598</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.23706544048493</v>
+        <v>-29.38225427741171</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7763057096660214</v>
+        <v>2.081802546317719</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.127764005530326</v>
+        <v>-6.655590964896197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.921337124128904</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.99140262343619</v>
+        <v>-29.30955230079725</v>
       </c>
       <c r="F30" t="n">
-        <v>1.59786909060301</v>
+        <v>2.445598436291728</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.328247510121907</v>
+        <v>-7.00595675300679</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>8.539487867231907</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.83144898577133</v>
+        <v>-28.99692720119581</v>
       </c>
       <c r="F31" t="n">
-        <v>1.330376857893492</v>
+        <v>2.253132902961887</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.215228338379434</v>
+        <v>-6.901703570576696</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.13974849500196</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.709350928277</v>
+        <v>-28.8156941611427</v>
       </c>
       <c r="F32" t="n">
-        <v>1.004094317609323</v>
+        <v>2.120171472209268</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.342014953459139</v>
+        <v>-7.157623524032226</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>7.7380970279436</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.16336130840054</v>
+        <v>-28.24786779209516</v>
       </c>
       <c r="F33" t="n">
-        <v>1.307198076337449</v>
+        <v>2.179162229065464</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.726721125802943</v>
+        <v>-7.685132697951747</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>7.340176897095634</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.63132980312912</v>
+        <v>-27.57220704308752</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8597952799323281</v>
+        <v>2.022567339118178</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.218376858801727</v>
+        <v>-7.524739049668869</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.951838529015636</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.26347359295214</v>
+        <v>-26.97171233015526</v>
       </c>
       <c r="F35" t="n">
-        <v>1.554924054284029</v>
+        <v>2.247050978419444</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.506437143400356</v>
+        <v>-7.693527122742241</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.584557664911253</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.45324292993266</v>
+        <v>-26.36385721738485</v>
       </c>
       <c r="F36" t="n">
-        <v>1.260708510039954</v>
+        <v>2.140822637215117</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.928483196628005</v>
+        <v>-7.641688982932341</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.246599709313928</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.79529994181071</v>
+        <v>-25.56033427178678</v>
       </c>
       <c r="F37" t="n">
-        <v>1.393396156408026</v>
+        <v>2.443745502689167</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.54668109436315</v>
+        <v>-7.484834975621109</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.937413024128756</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.8676108888136</v>
+        <v>-24.98227276686336</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7590670714532793</v>
+        <v>2.064759468379654</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.48714276873786</v>
+        <v>-7.288238231488725</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.656131187060609</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.51528460894938</v>
+        <v>-24.29864293666264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7017679109730361</v>
+        <v>1.972239902430155</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.935420697372158</v>
+        <v>-7.441674822999984</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.40807054433374</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.93326300846375</v>
+        <v>-23.71750135741306</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8338248754552758</v>
+        <v>2.109655218438534</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.541141849582934</v>
+        <v>-7.2824789813995</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.189893659702478</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.34954492259531</v>
+        <v>-23.0742498349262</v>
       </c>
       <c r="F41" t="n">
-        <v>1.202455993220663</v>
+        <v>2.247368763865794</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.725711636822708</v>
+        <v>-7.403242340019165</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.993468279222468</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.95853682040005</v>
+        <v>-22.47598206462181</v>
       </c>
       <c r="F42" t="n">
-        <v>1.21927417684285</v>
+        <v>2.241198837199748</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.543302790618111</v>
+        <v>-7.126974339983536</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.810729541995054</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.15110266930845</v>
+        <v>-21.76651872213632</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6048091267883789</v>
+        <v>1.918338601722418</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.702195513792847</v>
+        <v>-7.017480142192109</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.639962965593212</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.63753694297337</v>
+        <v>-21.13795377627767</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8890168739758787</v>
+        <v>2.058721544899014</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.560507205782785</v>
+        <v>-6.895792761274596</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.471477024753431</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.1216636053971</v>
+        <v>-20.38278310859338</v>
       </c>
       <c r="F45" t="n">
-        <v>0.706207129208195</v>
+        <v>2.061962956451779</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.515132333050947</v>
+        <v>-6.784518964983612</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.29559558412913</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.11901141010959</v>
+        <v>-19.82715725618223</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8520755380894693</v>
+        <v>1.992108826337298</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.235197577865131</v>
+        <v>-6.624296431941074</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.106050126713407</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.32364568153118</v>
+        <v>-19.43502468240758</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7772981780600052</v>
+        <v>2.098034049115877</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.818412096026282</v>
+        <v>-6.863574206021626</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.899540860621337</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.97945235552785</v>
+        <v>-18.5872317796296</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6147924788106193</v>
+        <v>2.022973126688132</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.369611043657224</v>
+        <v>-6.754158232340069</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.669469516709398</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.54546988297241</v>
+        <v>-17.9774552871605</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9254888652030642</v>
+        <v>2.09278325574081</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.203590148470526</v>
+        <v>-6.339037548277188</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.409787486252852</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.60140989954365</v>
+        <v>-17.70841812828103</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9756060745958093</v>
+        <v>2.033865833987618</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.822724200082901</v>
+        <v>-6.449504658435131</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.120370746796341</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.9506635295298</v>
+        <v>-17.33327974237578</v>
       </c>
       <c r="F51" t="n">
-        <v>1.292931954299791</v>
+        <v>2.125471155653003</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.010447396751834</v>
+        <v>-6.500932121668209</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.802392330495611</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.24625053113783</v>
+        <v>-16.77448581351487</v>
       </c>
       <c r="F52" t="n">
-        <v>1.401179455340155</v>
+        <v>2.054507220979733</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.943526670757502</v>
+        <v>-6.345280810046239</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.458163161224802</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.26244292188105</v>
+        <v>-16.74111834164818</v>
       </c>
       <c r="F53" t="n">
-        <v>1.248818445339617</v>
+        <v>2.010936391781787</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.451494484229966</v>
+        <v>-6.445774346195675</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.090859647337529</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.21804838596381</v>
+        <v>-16.06481713274097</v>
       </c>
       <c r="F54" t="n">
-        <v>1.737381790557295</v>
+        <v>2.177573301833716</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.755089679086</v>
+        <v>-6.188412135714406</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.711880711609765</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.12367099740489</v>
+        <v>-15.95510292964053</v>
       </c>
       <c r="F55" t="n">
-        <v>1.592359179863997</v>
+        <v>1.997486733890904</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.643593342044788</v>
+        <v>-6.535184503777816</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.331960772333486</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.16712937944489</v>
+        <v>-15.70676582583558</v>
       </c>
       <c r="F56" t="n">
-        <v>1.237480838415242</v>
+        <v>1.951842965781386</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.144816861482125</v>
+        <v>-6.212925616145117</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.9625254708641593</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.28364419109721</v>
+        <v>-15.83776676483457</v>
       </c>
       <c r="F57" t="n">
-        <v>1.405652896623382</v>
+        <v>1.928693518266544</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.481864994887242</v>
+        <v>-6.37399394737563</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.6152999196379122</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.56187032932082</v>
+        <v>-15.32263166729521</v>
       </c>
       <c r="F58" t="n">
-        <v>1.458659509074474</v>
+        <v>1.954839926990805</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.732226147535089</v>
+        <v>-6.667192578191386</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3059381230184263</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.20257721467124</v>
+        <v>-15.16709769183804</v>
       </c>
       <c r="F59" t="n">
-        <v>1.366589731756731</v>
+        <v>1.940231574472463</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.335967251964766</v>
+        <v>-6.294928928323881</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.04535664979745284</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.73718776200274</v>
+        <v>-14.85098428583706</v>
       </c>
       <c r="F60" t="n">
-        <v>1.320901962585411</v>
+        <v>1.858472712637044</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.18921393284058</v>
+        <v>-6.126717758060805</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1583353998386201</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.64599800592105</v>
+        <v>-14.97671976444037</v>
       </c>
       <c r="F61" t="n">
-        <v>1.276636894412363</v>
+        <v>1.899105248707975</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.980663566918588</v>
+        <v>-5.998224879584547</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2984155777613819</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.48515945801328</v>
+        <v>-14.82104889679094</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8409286024329032</v>
+        <v>1.819605108045071</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.789114631438511</v>
+        <v>-6.161669268152381</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3709440907886142</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.93978585300205</v>
+        <v>-14.6496549830575</v>
       </c>
       <c r="F63" t="n">
-        <v>1.240727138974873</v>
+        <v>1.976684009672181</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.343168759079731</v>
+        <v>-5.919213639608334</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3784084715029701</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.53131657184382</v>
+        <v>-14.91634541864084</v>
       </c>
       <c r="F64" t="n">
-        <v>1.052676378845857</v>
+        <v>1.81380674590091</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.372942810899243</v>
+        <v>-5.876253936268753</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3256365076796594</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.07410642766367</v>
+        <v>-14.77798652430715</v>
       </c>
       <c r="F65" t="n">
-        <v>1.121264256181806</v>
+        <v>1.935259454488811</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.42847703990053</v>
+        <v>-5.904502617945788</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2184771866476289</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.3339718096608</v>
+        <v>-14.93288981787848</v>
       </c>
       <c r="F66" t="n">
-        <v>0.991490457906416</v>
+        <v>1.91247179348212</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.598653590924106</v>
+        <v>-5.864955441399313</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06598453507857112</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.97590583573482</v>
+        <v>-14.72473546151271</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4218527118146877</v>
+        <v>1.693874518448619</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.500418775947184</v>
+        <v>-5.600729065276894</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1202849228758034</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.39624797913156</v>
+        <v>-14.89167060098352</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6055669228527507</v>
+        <v>1.773565330379333</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.425220961327165</v>
+        <v>-5.535920390249069</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.331509315246391</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.67293154475088</v>
+        <v>-14.9372605900175</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9041190161877789</v>
+        <v>1.925945896407338</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.843952267899046</v>
+        <v>-5.163720297470834</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.5598413222868329</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.48056868056524</v>
+        <v>-14.97294545113912</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6457252252575901</v>
+        <v>1.813503627475161</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.444725745160505</v>
+        <v>-5.090922985222471</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.7970243488156779</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.55856300711314</v>
+        <v>-15.29072600848172</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4745610948468978</v>
+        <v>1.786545643610992</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.762868089011262</v>
+        <v>-5.065544150576316</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.035327396925941</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.81324115282447</v>
+        <v>-15.3448717595328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4647488580649995</v>
+        <v>1.717424864526548</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.014510161458241</v>
+        <v>-5.043362726421122</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.269849305747127</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.29522878380615</v>
+        <v>-15.56302902394828</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4448065990548534</v>
+        <v>1.682038232823818</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.122904332704612</v>
+        <v>-5.104480201264426</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.495522120635584</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.53812931197509</v>
+        <v>-15.75632079943863</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5344612069803397</v>
+        <v>1.683759163240972</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.0012316188077</v>
+        <v>-4.912190672181795</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.706670734648634</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.78357701272168</v>
+        <v>-15.88752218771916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5131304700199898</v>
+        <v>1.587445727962747</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.05281553026052</v>
+        <v>-4.798047028859931</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.899651726699072</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.65504991119736</v>
+        <v>-15.74116976715806</v>
       </c>
       <c r="F76" t="n">
-        <v>0.201964738968321</v>
+        <v>1.403071500997651</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.163277751411596</v>
+        <v>-4.924163849998869</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.071961006259905</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.47272906711636</v>
+        <v>-15.60733809318313</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2126667749999978</v>
+        <v>1.2360092473483</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.549194043892744</v>
+        <v>-4.6517288313469</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.221562952853811</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.13277432819108</v>
+        <v>-15.97583720776311</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.03106977334317999</v>
+        <v>1.163847505992636</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.278167059218447</v>
+        <v>-4.429684806472224</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.345422041827471</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.45941865498341</v>
+        <v>-16.22318184317407</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2336601704865306</v>
+        <v>1.086332302117699</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.319870287793231</v>
+        <v>-4.334676736027466</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.443744254098636</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.64362176670816</v>
+        <v>-16.58539858393007</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.02553052856296535</v>
+        <v>0.9155739592769607</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.246745412084784</v>
+        <v>-4.25403745676457</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.516632372073718</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.46462780086232</v>
+        <v>-17.15419053183382</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04194754421419476</v>
+        <v>0.8900777884659992</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.819803109417703</v>
+        <v>-3.951016811153182</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.563844650736021</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.90735670670267</v>
+        <v>-17.51782019557436</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2839292085000211</v>
+        <v>0.5949039988760092</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.151390222152475</v>
+        <v>-4.048801837498348</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.584214046831828</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.44613015244356</v>
+        <v>-17.99294854992175</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.04544345353190993</v>
+        <v>0.5950848921300851</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.835188814027884</v>
+        <v>-4.08703876020449</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.577812588914905</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.86376125059482</v>
+        <v>-19.0184715193327</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6179754916888518</v>
+        <v>0.2555042531679066</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.504481722529156</v>
+        <v>-3.774093430653264</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.54568937361297</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.51950418562666</v>
+        <v>-19.63789402235022</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.319398953319489</v>
+        <v>0.3393067198736958</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.818277739275225</v>
+        <v>-3.957792974670726</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.48758690755825</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.60585128946889</v>
+        <v>-20.42824598344882</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5872040824684892</v>
+        <v>0.07720217273151846</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.998185949405178</v>
+        <v>-3.833093965523194</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.403271275537795</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.16153580996244</v>
+        <v>-21.0717321782653</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2340368934231541</v>
+        <v>0.08636906060698399</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.283571947247604</v>
+        <v>-4.137610647235858</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.293566235009277</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.70549160298227</v>
+        <v>-21.73755624545671</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.08997252807577129</v>
+        <v>-0.003290436325369251</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.679102380794757</v>
+        <v>-4.474639224613507</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.1614700083427</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.75754721265996</v>
+        <v>-22.6036438119307</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9900093582336117</v>
+        <v>-0.3479507534222723</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.874347405466222</v>
+        <v>-4.142460542047838</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.009066042028901</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.70897239399595</v>
+        <v>-23.77495696611305</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9348858058091457</v>
+        <v>-0.5440977089229001</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.714870355033107</v>
+        <v>-4.624580176214922</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.83880615490219</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.24445300267419</v>
+        <v>-25.23567977078929</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7661172887632417</v>
+        <v>-0.5945815938306638</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.887525632538209</v>
+        <v>-4.907350555383548</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.654759098338466</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.85475986145057</v>
+        <v>-26.36294786210761</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8800164817417593</v>
+        <v>-0.7700382722705075</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.455545117356988</v>
+        <v>-5.356259165903679</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.461713642144614</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.93269542897827</v>
+        <v>-27.53750242784272</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9323533002520837</v>
+        <v>-0.9842452191375191</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.802058368056452</v>
+        <v>-5.831661304635622</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.263516433269612</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.26904189896021</v>
+        <v>-28.84438529794119</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.545028973793264</v>
+        <v>-1.510057907674222</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.351277267906292</v>
+        <v>-5.777960453209428</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.063188498530312</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.48791522100612</v>
+        <v>-30.6777335389931</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.587592667576626</v>
+        <v>-1.744691125231204</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.039419651445172</v>
+        <v>-6.338299308240284</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.8664123808720398</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.13650544805387</v>
+        <v>-32.29687238867455</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.546412562736601</v>
+        <v>-1.762286660945231</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.101598040778597</v>
+        <v>-6.615256658244149</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.6783230174643045</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.87031595379883</v>
+        <v>-34.16265185677814</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.177006446445025</v>
+        <v>-2.329753687988049</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.297622771107552</v>
+        <v>-7.09831498172968</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.5032907664502156</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.50126419956732</v>
+        <v>-35.89836663069775</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.415047301788247</v>
+        <v>-2.72623747787425</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.311986673282548</v>
+        <v>-7.338991011774169</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.3444215994957041</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.86588370532284</v>
+        <v>-37.92844117456401</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.043649006136186</v>
+        <v>-2.931629545360214</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.797567724311407</v>
+        <v>-7.794025547898545</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2068213108708169</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.68254821044139</v>
+        <v>-40.04173883782234</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.763452598145207</v>
+        <v>-3.566452420008519</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.425609546435301</v>
+        <v>-8.338734247975873</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.09331623226548613</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.61389903864404</v>
+        <v>-41.76922052417806</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.74855090521485</v>
+        <v>-4.066172478896497</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.739923797909263</v>
+        <v>-8.733521552479255</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.004360016619533107</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.57921868655801</v>
+        <v>-43.85282235972674</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.359774543716557</v>
+        <v>-4.619295159791787</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.977685979861072</v>
+        <v>-9.117240145435941</v>
       </c>
     </row>
   </sheetData>
